--- a/القبض.xlsx
+++ b/القبض.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="53">
   <si>
     <t xml:space="preserve">عدد الأيام </t>
   </si>
@@ -141,13 +142,49 @@
   </si>
   <si>
     <t>محمد محمود طه</t>
+  </si>
+  <si>
+    <t>كود</t>
+  </si>
+  <si>
+    <t>يومية</t>
+  </si>
+  <si>
+    <t>اضافي</t>
+  </si>
+  <si>
+    <t>الخميس</t>
+  </si>
+  <si>
+    <t>الجمعة</t>
+  </si>
+  <si>
+    <t>السبت</t>
+  </si>
+  <si>
+    <t>الاحد</t>
+  </si>
+  <si>
+    <t>الاثنين</t>
+  </si>
+  <si>
+    <t>الثلاثاء</t>
+  </si>
+  <si>
+    <t>الاربعاء</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ام كريم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ولاء عامر </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,8 +229,45 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,8 +298,14 @@
         <bgColor theme="6" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -298,11 +378,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -356,6 +516,63 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -709,8 +926,8 @@
   </sheetPr>
   <dimension ref="B3:N49"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45:E45"/>
+    <sheetView rightToLeft="1" topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1874,4 +2091,1027 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="40" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:T34"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="2" max="2" width="14.625" customWidth="1"/>
+    <col min="3" max="18" width="5.875" customWidth="1"/>
+    <col min="19" max="20" width="7.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="35"/>
+      <c r="E2" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="35"/>
+      <c r="G2" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="35"/>
+      <c r="I2" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="35"/>
+      <c r="K2" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="35"/>
+      <c r="M2" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="35"/>
+      <c r="O2" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="R2" s="35"/>
+      <c r="S2" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="T2" s="35"/>
+    </row>
+    <row r="3" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q3" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="R3" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="S3" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="T3" s="39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="24">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="40"/>
+    </row>
+    <row r="5" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="26">
+        <f>A4+1</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="40"/>
+    </row>
+    <row r="6" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="26">
+        <f t="shared" ref="A6:A34" si="0">A5+1</f>
+        <v>3</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="40"/>
+    </row>
+    <row r="7" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="26">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="40"/>
+    </row>
+    <row r="8" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="26">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="40"/>
+    </row>
+    <row r="9" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="26">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="40"/>
+    </row>
+    <row r="10" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="26">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="40"/>
+    </row>
+    <row r="11" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="26">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="40"/>
+    </row>
+    <row r="12" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="26">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="40"/>
+    </row>
+    <row r="13" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="26">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="40"/>
+    </row>
+    <row r="14" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="26">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="40"/>
+    </row>
+    <row r="15" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="26">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="25"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="40"/>
+    </row>
+    <row r="16" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="35"/>
+      <c r="E16" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="35"/>
+      <c r="G16" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="35"/>
+      <c r="I16" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="J16" s="35"/>
+      <c r="K16" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="L16" s="35"/>
+      <c r="M16" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="N16" s="35"/>
+      <c r="O16" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="R16" s="35"/>
+      <c r="S16" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="T16" s="35"/>
+    </row>
+    <row r="17" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="K17" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="L17" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="M17" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="N17" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="O17" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P17" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q17" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="R17" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="S17" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="T17" s="39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="27"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="31"/>
+    </row>
+    <row r="19" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="29">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="31"/>
+    </row>
+    <row r="20" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="29">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="27"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="31"/>
+    </row>
+    <row r="21" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="29">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="27"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="31"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="31"/>
+    </row>
+    <row r="22" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="29">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="27"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="31"/>
+    </row>
+    <row r="23" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="29">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="27"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="31"/>
+    </row>
+    <row r="24" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="29">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="27"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="31"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="31"/>
+    </row>
+    <row r="25" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="29">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="27"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="31"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="31"/>
+    </row>
+    <row r="26" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="29">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B26" s="28"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="31"/>
+      <c r="S26" s="27"/>
+      <c r="T26" s="31"/>
+    </row>
+    <row r="27" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="29">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="27"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="31"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="31"/>
+    </row>
+    <row r="28" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="29">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="27"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="31"/>
+      <c r="S28" s="27"/>
+      <c r="T28" s="31"/>
+    </row>
+    <row r="29" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="29">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="27"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="27"/>
+      <c r="T29" s="31"/>
+    </row>
+    <row r="30" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="29">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="27"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="27"/>
+      <c r="T30" s="31"/>
+    </row>
+    <row r="31" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="29">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B31" s="28"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="32"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="32"/>
+    </row>
+    <row r="32" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="29">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B32" s="28"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="32"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="32"/>
+      <c r="S32" s="29"/>
+      <c r="T32" s="32"/>
+    </row>
+    <row r="33" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="29">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B33" s="28"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="32"/>
+      <c r="S33" s="29"/>
+      <c r="T33" s="32"/>
+    </row>
+    <row r="34" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="29">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B34" s="28"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="32"/>
+      <c r="S34" s="29"/>
+      <c r="T34" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="96" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
 </file>
--- a/القبض.xlsx
+++ b/القبض.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="57">
   <si>
     <t xml:space="preserve">عدد الأيام </t>
   </si>
@@ -178,13 +179,25 @@
   </si>
   <si>
     <t xml:space="preserve">ولاء عامر </t>
+  </si>
+  <si>
+    <t>مج</t>
+  </si>
+  <si>
+    <t>ولاء عامر ام احمد</t>
+  </si>
+  <si>
+    <t>سلف فبرابر</t>
+  </si>
+  <si>
+    <t>سلف يناير</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,8 +279,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -304,8 +323,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BBB59"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -458,11 +489,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -550,35 +592,126 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2044,7 +2177,7 @@
     <cfRule type="cellIs" priority="11" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2052,7 +2185,7 @@
     <cfRule type="cellIs" priority="9" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2060,7 +2193,7 @@
     <cfRule type="cellIs" priority="7" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2068,7 +2201,7 @@
     <cfRule type="cellIs" priority="5" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2076,7 +2209,7 @@
     <cfRule type="cellIs" priority="3" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2084,7 +2217,7 @@
     <cfRule type="cellIs" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2100,7 +2233,7 @@
   </sheetPr>
   <dimension ref="A2:T34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -2113,104 +2246,104 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="36" t="s">
+      <c r="D2" s="37"/>
+      <c r="E2" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="34" t="s">
+      <c r="F2" s="37"/>
+      <c r="G2" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="34" t="s">
+      <c r="H2" s="37"/>
+      <c r="I2" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="35"/>
-      <c r="K2" s="34" t="s">
+      <c r="J2" s="37"/>
+      <c r="K2" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="35"/>
-      <c r="M2" s="34" t="s">
+      <c r="L2" s="37"/>
+      <c r="M2" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="34" t="s">
+      <c r="N2" s="37"/>
+      <c r="O2" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="34" t="s">
+      <c r="P2" s="37"/>
+      <c r="Q2" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="R2" s="35"/>
-      <c r="S2" s="34" t="s">
+      <c r="R2" s="37"/>
+      <c r="S2" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="T2" s="35"/>
+      <c r="T2" s="37"/>
     </row>
     <row r="3" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="38" t="s">
+      <c r="A3" s="39"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="39" t="s">
+      <c r="H3" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="38" t="s">
+      <c r="I3" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="39" t="s">
+      <c r="J3" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="K3" s="38" t="s">
+      <c r="K3" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="39" t="s">
+      <c r="L3" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="M3" s="38" t="s">
+      <c r="M3" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="N3" s="39" t="s">
+      <c r="N3" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="O3" s="38" t="s">
+      <c r="O3" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="P3" s="39" t="s">
+      <c r="P3" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="Q3" s="38" t="s">
+      <c r="Q3" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="R3" s="39" t="s">
+      <c r="R3" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="S3" s="38" t="s">
+      <c r="S3" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="T3" s="39" t="s">
+      <c r="T3" s="34" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2222,23 +2355,23 @@
         <v>5</v>
       </c>
       <c r="C4" s="23"/>
-      <c r="D4" s="40"/>
+      <c r="D4" s="35"/>
       <c r="E4" s="23"/>
-      <c r="F4" s="40"/>
+      <c r="F4" s="35"/>
       <c r="G4" s="23"/>
-      <c r="H4" s="40"/>
+      <c r="H4" s="35"/>
       <c r="I4" s="23"/>
-      <c r="J4" s="40"/>
+      <c r="J4" s="35"/>
       <c r="K4" s="23"/>
-      <c r="L4" s="40"/>
+      <c r="L4" s="35"/>
       <c r="M4" s="23"/>
-      <c r="N4" s="40"/>
+      <c r="N4" s="35"/>
       <c r="O4" s="23"/>
-      <c r="P4" s="40"/>
+      <c r="P4" s="35"/>
       <c r="Q4" s="23"/>
-      <c r="R4" s="40"/>
+      <c r="R4" s="35"/>
       <c r="S4" s="23"/>
-      <c r="T4" s="40"/>
+      <c r="T4" s="35"/>
     </row>
     <row r="5" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="26">
@@ -2249,23 +2382,23 @@
         <v>6</v>
       </c>
       <c r="C5" s="23"/>
-      <c r="D5" s="40"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="23"/>
-      <c r="F5" s="40"/>
+      <c r="F5" s="35"/>
       <c r="G5" s="23"/>
-      <c r="H5" s="40"/>
+      <c r="H5" s="35"/>
       <c r="I5" s="23"/>
-      <c r="J5" s="40"/>
+      <c r="J5" s="35"/>
       <c r="K5" s="23"/>
-      <c r="L5" s="40"/>
+      <c r="L5" s="35"/>
       <c r="M5" s="23"/>
-      <c r="N5" s="40"/>
+      <c r="N5" s="35"/>
       <c r="O5" s="23"/>
-      <c r="P5" s="40"/>
+      <c r="P5" s="35"/>
       <c r="Q5" s="23"/>
-      <c r="R5" s="40"/>
+      <c r="R5" s="35"/>
       <c r="S5" s="23"/>
-      <c r="T5" s="40"/>
+      <c r="T5" s="35"/>
     </row>
     <row r="6" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="26">
@@ -2276,23 +2409,23 @@
         <v>7</v>
       </c>
       <c r="C6" s="23"/>
-      <c r="D6" s="40"/>
+      <c r="D6" s="35"/>
       <c r="E6" s="23"/>
-      <c r="F6" s="40"/>
+      <c r="F6" s="35"/>
       <c r="G6" s="23"/>
-      <c r="H6" s="40"/>
+      <c r="H6" s="35"/>
       <c r="I6" s="23"/>
-      <c r="J6" s="40"/>
+      <c r="J6" s="35"/>
       <c r="K6" s="23"/>
-      <c r="L6" s="40"/>
+      <c r="L6" s="35"/>
       <c r="M6" s="23"/>
-      <c r="N6" s="40"/>
+      <c r="N6" s="35"/>
       <c r="O6" s="23"/>
-      <c r="P6" s="40"/>
+      <c r="P6" s="35"/>
       <c r="Q6" s="23"/>
-      <c r="R6" s="40"/>
+      <c r="R6" s="35"/>
       <c r="S6" s="23"/>
-      <c r="T6" s="40"/>
+      <c r="T6" s="35"/>
     </row>
     <row r="7" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="26">
@@ -2303,23 +2436,23 @@
         <v>8</v>
       </c>
       <c r="C7" s="23"/>
-      <c r="D7" s="40"/>
+      <c r="D7" s="35"/>
       <c r="E7" s="23"/>
-      <c r="F7" s="40"/>
+      <c r="F7" s="35"/>
       <c r="G7" s="23"/>
-      <c r="H7" s="40"/>
+      <c r="H7" s="35"/>
       <c r="I7" s="23"/>
-      <c r="J7" s="40"/>
+      <c r="J7" s="35"/>
       <c r="K7" s="23"/>
-      <c r="L7" s="40"/>
+      <c r="L7" s="35"/>
       <c r="M7" s="23"/>
-      <c r="N7" s="40"/>
+      <c r="N7" s="35"/>
       <c r="O7" s="23"/>
-      <c r="P7" s="40"/>
+      <c r="P7" s="35"/>
       <c r="Q7" s="23"/>
-      <c r="R7" s="40"/>
+      <c r="R7" s="35"/>
       <c r="S7" s="23"/>
-      <c r="T7" s="40"/>
+      <c r="T7" s="35"/>
     </row>
     <row r="8" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26">
@@ -2330,23 +2463,23 @@
         <v>9</v>
       </c>
       <c r="C8" s="23"/>
-      <c r="D8" s="40"/>
+      <c r="D8" s="35"/>
       <c r="E8" s="23"/>
-      <c r="F8" s="40"/>
+      <c r="F8" s="35"/>
       <c r="G8" s="23"/>
-      <c r="H8" s="40"/>
+      <c r="H8" s="35"/>
       <c r="I8" s="23"/>
-      <c r="J8" s="40"/>
+      <c r="J8" s="35"/>
       <c r="K8" s="23"/>
-      <c r="L8" s="40"/>
+      <c r="L8" s="35"/>
       <c r="M8" s="23"/>
-      <c r="N8" s="40"/>
+      <c r="N8" s="35"/>
       <c r="O8" s="23"/>
-      <c r="P8" s="40"/>
+      <c r="P8" s="35"/>
       <c r="Q8" s="23"/>
-      <c r="R8" s="40"/>
+      <c r="R8" s="35"/>
       <c r="S8" s="23"/>
-      <c r="T8" s="40"/>
+      <c r="T8" s="35"/>
     </row>
     <row r="9" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="26">
@@ -2357,23 +2490,23 @@
         <v>10</v>
       </c>
       <c r="C9" s="23"/>
-      <c r="D9" s="40"/>
+      <c r="D9" s="35"/>
       <c r="E9" s="23"/>
-      <c r="F9" s="40"/>
+      <c r="F9" s="35"/>
       <c r="G9" s="23"/>
-      <c r="H9" s="40"/>
+      <c r="H9" s="35"/>
       <c r="I9" s="23"/>
-      <c r="J9" s="40"/>
+      <c r="J9" s="35"/>
       <c r="K9" s="23"/>
-      <c r="L9" s="40"/>
+      <c r="L9" s="35"/>
       <c r="M9" s="23"/>
-      <c r="N9" s="40"/>
+      <c r="N9" s="35"/>
       <c r="O9" s="23"/>
-      <c r="P9" s="40"/>
+      <c r="P9" s="35"/>
       <c r="Q9" s="23"/>
-      <c r="R9" s="40"/>
+      <c r="R9" s="35"/>
       <c r="S9" s="23"/>
-      <c r="T9" s="40"/>
+      <c r="T9" s="35"/>
     </row>
     <row r="10" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="26">
@@ -2384,23 +2517,23 @@
         <v>11</v>
       </c>
       <c r="C10" s="23"/>
-      <c r="D10" s="40"/>
+      <c r="D10" s="35"/>
       <c r="E10" s="23"/>
-      <c r="F10" s="40"/>
+      <c r="F10" s="35"/>
       <c r="G10" s="23"/>
-      <c r="H10" s="40"/>
+      <c r="H10" s="35"/>
       <c r="I10" s="23"/>
-      <c r="J10" s="40"/>
+      <c r="J10" s="35"/>
       <c r="K10" s="23"/>
-      <c r="L10" s="40"/>
+      <c r="L10" s="35"/>
       <c r="M10" s="23"/>
-      <c r="N10" s="40"/>
+      <c r="N10" s="35"/>
       <c r="O10" s="23"/>
-      <c r="P10" s="40"/>
+      <c r="P10" s="35"/>
       <c r="Q10" s="23"/>
-      <c r="R10" s="40"/>
+      <c r="R10" s="35"/>
       <c r="S10" s="23"/>
-      <c r="T10" s="40"/>
+      <c r="T10" s="35"/>
     </row>
     <row r="11" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="26">
@@ -2411,23 +2544,23 @@
         <v>12</v>
       </c>
       <c r="C11" s="23"/>
-      <c r="D11" s="40"/>
+      <c r="D11" s="35"/>
       <c r="E11" s="23"/>
-      <c r="F11" s="40"/>
+      <c r="F11" s="35"/>
       <c r="G11" s="23"/>
-      <c r="H11" s="40"/>
+      <c r="H11" s="35"/>
       <c r="I11" s="23"/>
-      <c r="J11" s="40"/>
+      <c r="J11" s="35"/>
       <c r="K11" s="23"/>
-      <c r="L11" s="40"/>
+      <c r="L11" s="35"/>
       <c r="M11" s="23"/>
-      <c r="N11" s="40"/>
+      <c r="N11" s="35"/>
       <c r="O11" s="23"/>
-      <c r="P11" s="40"/>
+      <c r="P11" s="35"/>
       <c r="Q11" s="23"/>
-      <c r="R11" s="40"/>
+      <c r="R11" s="35"/>
       <c r="S11" s="23"/>
-      <c r="T11" s="40"/>
+      <c r="T11" s="35"/>
     </row>
     <row r="12" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="26">
@@ -2438,23 +2571,23 @@
         <v>30</v>
       </c>
       <c r="C12" s="23"/>
-      <c r="D12" s="40"/>
+      <c r="D12" s="35"/>
       <c r="E12" s="23"/>
-      <c r="F12" s="40"/>
+      <c r="F12" s="35"/>
       <c r="G12" s="23"/>
-      <c r="H12" s="40"/>
+      <c r="H12" s="35"/>
       <c r="I12" s="23"/>
-      <c r="J12" s="40"/>
+      <c r="J12" s="35"/>
       <c r="K12" s="23"/>
-      <c r="L12" s="40"/>
+      <c r="L12" s="35"/>
       <c r="M12" s="23"/>
-      <c r="N12" s="40"/>
+      <c r="N12" s="35"/>
       <c r="O12" s="23"/>
-      <c r="P12" s="40"/>
+      <c r="P12" s="35"/>
       <c r="Q12" s="23"/>
-      <c r="R12" s="40"/>
+      <c r="R12" s="35"/>
       <c r="S12" s="23"/>
-      <c r="T12" s="40"/>
+      <c r="T12" s="35"/>
     </row>
     <row r="13" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="26">
@@ -2465,23 +2598,23 @@
         <v>33</v>
       </c>
       <c r="C13" s="23"/>
-      <c r="D13" s="40"/>
+      <c r="D13" s="35"/>
       <c r="E13" s="23"/>
-      <c r="F13" s="40"/>
+      <c r="F13" s="35"/>
       <c r="G13" s="23"/>
-      <c r="H13" s="40"/>
+      <c r="H13" s="35"/>
       <c r="I13" s="23"/>
-      <c r="J13" s="40"/>
+      <c r="J13" s="35"/>
       <c r="K13" s="23"/>
-      <c r="L13" s="40"/>
+      <c r="L13" s="35"/>
       <c r="M13" s="23"/>
-      <c r="N13" s="40"/>
+      <c r="N13" s="35"/>
       <c r="O13" s="23"/>
-      <c r="P13" s="40"/>
+      <c r="P13" s="35"/>
       <c r="Q13" s="23"/>
-      <c r="R13" s="40"/>
+      <c r="R13" s="35"/>
       <c r="S13" s="23"/>
-      <c r="T13" s="40"/>
+      <c r="T13" s="35"/>
     </row>
     <row r="14" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="26">
@@ -2492,23 +2625,23 @@
         <v>36</v>
       </c>
       <c r="C14" s="23"/>
-      <c r="D14" s="40"/>
+      <c r="D14" s="35"/>
       <c r="E14" s="23"/>
-      <c r="F14" s="40"/>
+      <c r="F14" s="35"/>
       <c r="G14" s="23"/>
-      <c r="H14" s="40"/>
+      <c r="H14" s="35"/>
       <c r="I14" s="23"/>
-      <c r="J14" s="40"/>
+      <c r="J14" s="35"/>
       <c r="K14" s="23"/>
-      <c r="L14" s="40"/>
+      <c r="L14" s="35"/>
       <c r="M14" s="23"/>
-      <c r="N14" s="40"/>
+      <c r="N14" s="35"/>
       <c r="O14" s="23"/>
-      <c r="P14" s="40"/>
+      <c r="P14" s="35"/>
       <c r="Q14" s="23"/>
-      <c r="R14" s="40"/>
+      <c r="R14" s="35"/>
       <c r="S14" s="23"/>
-      <c r="T14" s="40"/>
+      <c r="T14" s="35"/>
     </row>
     <row r="15" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="26">
@@ -2517,123 +2650,123 @@
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="23"/>
-      <c r="D15" s="40"/>
+      <c r="D15" s="35"/>
       <c r="E15" s="23"/>
-      <c r="F15" s="40"/>
+      <c r="F15" s="35"/>
       <c r="G15" s="23"/>
-      <c r="H15" s="40"/>
+      <c r="H15" s="35"/>
       <c r="I15" s="23"/>
-      <c r="J15" s="40"/>
+      <c r="J15" s="35"/>
       <c r="K15" s="23"/>
-      <c r="L15" s="40"/>
+      <c r="L15" s="35"/>
       <c r="M15" s="23"/>
-      <c r="N15" s="40"/>
+      <c r="N15" s="35"/>
       <c r="O15" s="23"/>
-      <c r="P15" s="40"/>
+      <c r="P15" s="35"/>
       <c r="Q15" s="23"/>
-      <c r="R15" s="40"/>
+      <c r="R15" s="35"/>
       <c r="S15" s="23"/>
-      <c r="T15" s="40"/>
+      <c r="T15" s="35"/>
     </row>
     <row r="16" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="35"/>
-      <c r="E16" s="36" t="s">
+      <c r="D16" s="37"/>
+      <c r="E16" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="35"/>
-      <c r="G16" s="34" t="s">
+      <c r="F16" s="37"/>
+      <c r="G16" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="H16" s="35"/>
-      <c r="I16" s="34" t="s">
+      <c r="H16" s="37"/>
+      <c r="I16" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="J16" s="35"/>
-      <c r="K16" s="34" t="s">
+      <c r="J16" s="37"/>
+      <c r="K16" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="L16" s="35"/>
-      <c r="M16" s="34" t="s">
+      <c r="L16" s="37"/>
+      <c r="M16" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="N16" s="35"/>
-      <c r="O16" s="34" t="s">
+      <c r="N16" s="37"/>
+      <c r="O16" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="34" t="s">
+      <c r="P16" s="37"/>
+      <c r="Q16" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="R16" s="35"/>
-      <c r="S16" s="34" t="s">
+      <c r="R16" s="37"/>
+      <c r="S16" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="T16" s="35"/>
+      <c r="T16" s="37"/>
     </row>
     <row r="17" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="38" t="s">
+      <c r="A17" s="39"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="38" t="s">
+      <c r="E17" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="39" t="s">
+      <c r="F17" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="G17" s="38" t="s">
+      <c r="G17" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="39" t="s">
+      <c r="H17" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="I17" s="38" t="s">
+      <c r="I17" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="J17" s="39" t="s">
+      <c r="J17" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="K17" s="38" t="s">
+      <c r="K17" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="L17" s="39" t="s">
+      <c r="L17" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="M17" s="38" t="s">
+      <c r="M17" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="N17" s="39" t="s">
+      <c r="N17" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="O17" s="38" t="s">
+      <c r="O17" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="P17" s="39" t="s">
+      <c r="P17" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="Q17" s="38" t="s">
+      <c r="Q17" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="R17" s="39" t="s">
+      <c r="R17" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="S17" s="38" t="s">
+      <c r="S17" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="T17" s="39" t="s">
+      <c r="T17" s="34" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3088,11 +3221,7 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="M2:N2"/>
     <mergeCell ref="S16:T16"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="Q2:R2"/>
@@ -3109,9 +3238,593 @@
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="96" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:J49"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <f>990+1530</f>
+        <v>2520</v>
+      </c>
+      <c r="C3">
+        <f>990+975</f>
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <f>540-700</f>
+        <v>-160</v>
+      </c>
+      <c r="C6">
+        <f>540-2370</f>
+        <v>-1830</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="43">
+        <v>1</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="45">
+        <f>11+7</f>
+        <v>18</v>
+      </c>
+      <c r="D9" s="45">
+        <v>120</v>
+      </c>
+      <c r="E9" s="45">
+        <f>D9*C9</f>
+        <v>2160</v>
+      </c>
+      <c r="F9" s="45">
+        <f>25*15</f>
+        <v>375</v>
+      </c>
+      <c r="G9" s="46"/>
+      <c r="H9" s="55">
+        <v>2220</v>
+      </c>
+      <c r="I9" s="45">
+        <v>300</v>
+      </c>
+      <c r="J9" s="45">
+        <f>(E9-I9-H9)+F9</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="43">
+        <f>A9+1</f>
+        <v>2</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="45">
+        <f>11+7</f>
+        <v>18</v>
+      </c>
+      <c r="D10" s="45">
+        <v>120</v>
+      </c>
+      <c r="E10" s="45">
+        <f t="shared" ref="E10:E13" si="0">D10*C10</f>
+        <v>2160</v>
+      </c>
+      <c r="F10" s="45">
+        <f>15*25</f>
+        <v>375</v>
+      </c>
+      <c r="G10" s="46"/>
+      <c r="H10" s="55">
+        <v>3690</v>
+      </c>
+      <c r="I10" s="45">
+        <v>400</v>
+      </c>
+      <c r="J10" s="45">
+        <f t="shared" ref="J10:J14" si="1">(E10-I10-H10)+F10</f>
+        <v>-1555</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="43">
+        <f t="shared" ref="A11:A14" si="2">A10+1</f>
+        <v>3</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="45">
+        <f>7+9</f>
+        <v>16</v>
+      </c>
+      <c r="D11" s="45">
+        <v>170</v>
+      </c>
+      <c r="E11" s="45">
+        <f t="shared" si="0"/>
+        <v>2720</v>
+      </c>
+      <c r="F11" s="45">
+        <f>17*21</f>
+        <v>357</v>
+      </c>
+      <c r="G11" s="46"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45">
+        <v>200</v>
+      </c>
+      <c r="J11" s="45">
+        <f t="shared" si="1"/>
+        <v>2877</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="43">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="45">
+        <f>7.5+7</f>
+        <v>14.5</v>
+      </c>
+      <c r="D12" s="45">
+        <v>170</v>
+      </c>
+      <c r="E12" s="45">
+        <f t="shared" si="0"/>
+        <v>2465</v>
+      </c>
+      <c r="F12" s="45">
+        <f>21*11</f>
+        <v>231</v>
+      </c>
+      <c r="G12" s="46"/>
+      <c r="H12" s="55">
+        <v>300</v>
+      </c>
+      <c r="I12" s="45">
+        <v>200</v>
+      </c>
+      <c r="J12" s="45">
+        <f t="shared" si="1"/>
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="43">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="45">
+        <f>9+7</f>
+        <v>16</v>
+      </c>
+      <c r="D13" s="45">
+        <v>50</v>
+      </c>
+      <c r="E13" s="45">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="F13" s="45">
+        <v>36</v>
+      </c>
+      <c r="G13" s="46"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45">
+        <v>0</v>
+      </c>
+      <c r="J13" s="45">
+        <f t="shared" si="1"/>
+        <v>836</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="43">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B14" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="55">
+        <v>3</v>
+      </c>
+      <c r="D14" s="55">
+        <v>120</v>
+      </c>
+      <c r="E14" s="55">
+        <v>360</v>
+      </c>
+      <c r="F14" s="55"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55">
+        <v>300</v>
+      </c>
+      <c r="J14" s="45">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="48"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="46">
+        <f>SUM(E9:E13)</f>
+        <v>10305</v>
+      </c>
+      <c r="F15" s="46">
+        <v>0</v>
+      </c>
+      <c r="G15" s="46">
+        <v>0</v>
+      </c>
+      <c r="H15" s="46">
+        <v>1100</v>
+      </c>
+      <c r="I15" s="46">
+        <v>1100</v>
+      </c>
+      <c r="J15" s="50">
+        <f>SUM(J9:J14)</f>
+        <v>4429</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="63" x14ac:dyDescent="0.2">
+      <c r="A42" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="H42" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="I42" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="J42" s="52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="53">
+        <v>10</v>
+      </c>
+      <c r="B43" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="55">
+        <v>9</v>
+      </c>
+      <c r="D43" s="55">
+        <v>170</v>
+      </c>
+      <c r="E43" s="55">
+        <v>1530</v>
+      </c>
+      <c r="F43" s="55">
+        <v>252</v>
+      </c>
+      <c r="G43" s="56"/>
+      <c r="H43" s="55">
+        <v>0</v>
+      </c>
+      <c r="I43" s="55">
+        <v>0</v>
+      </c>
+      <c r="J43" s="55">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="53">
+        <v>11</v>
+      </c>
+      <c r="B44" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44" s="55">
+        <v>6.5</v>
+      </c>
+      <c r="D44" s="55">
+        <v>170</v>
+      </c>
+      <c r="E44" s="55">
+        <v>1105</v>
+      </c>
+      <c r="F44" s="55">
+        <v>168</v>
+      </c>
+      <c r="G44" s="56"/>
+      <c r="H44" s="55">
+        <v>300</v>
+      </c>
+      <c r="I44" s="55">
+        <v>300</v>
+      </c>
+      <c r="J44" s="55">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="53">
+        <v>20</v>
+      </c>
+      <c r="B45" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" s="55">
+        <v>11</v>
+      </c>
+      <c r="D45" s="55">
+        <v>120</v>
+      </c>
+      <c r="E45" s="55">
+        <v>1320</v>
+      </c>
+      <c r="F45" s="55">
+        <v>315</v>
+      </c>
+      <c r="G45" s="56"/>
+      <c r="H45" s="55">
+        <v>2220</v>
+      </c>
+      <c r="I45" s="55">
+        <v>2220</v>
+      </c>
+      <c r="J45" s="55">
+        <v>-585</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="53">
+        <v>21</v>
+      </c>
+      <c r="B46" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" s="55">
+        <v>11</v>
+      </c>
+      <c r="D46" s="55">
+        <v>120</v>
+      </c>
+      <c r="E46" s="55">
+        <v>1320</v>
+      </c>
+      <c r="F46" s="55">
+        <v>315</v>
+      </c>
+      <c r="G46" s="56"/>
+      <c r="H46" s="55">
+        <v>3690</v>
+      </c>
+      <c r="I46" s="55">
+        <v>3690</v>
+      </c>
+      <c r="J46" s="55">
+        <v>-2055</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="53">
+        <v>22</v>
+      </c>
+      <c r="B47" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="55">
+        <v>3</v>
+      </c>
+      <c r="D47" s="55">
+        <v>120</v>
+      </c>
+      <c r="E47" s="55">
+        <v>360</v>
+      </c>
+      <c r="F47" s="55"/>
+      <c r="G47" s="56"/>
+      <c r="H47" s="55">
+        <v>300</v>
+      </c>
+      <c r="I47" s="55">
+        <v>300</v>
+      </c>
+      <c r="J47" s="55">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="53">
+        <v>28</v>
+      </c>
+      <c r="B48" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="55">
+        <v>9</v>
+      </c>
+      <c r="D48" s="55">
+        <v>50</v>
+      </c>
+      <c r="E48" s="55">
+        <v>450</v>
+      </c>
+      <c r="F48" s="55">
+        <v>36</v>
+      </c>
+      <c r="G48" s="56"/>
+      <c r="H48" s="55">
+        <v>0</v>
+      </c>
+      <c r="I48" s="55">
+        <v>0</v>
+      </c>
+      <c r="J48" s="55">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="59"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="56">
+        <v>6085</v>
+      </c>
+      <c r="F49" s="56">
+        <v>1086</v>
+      </c>
+      <c r="G49" s="56">
+        <v>0</v>
+      </c>
+      <c r="H49" s="56">
+        <v>6510</v>
+      </c>
+      <c r="I49" s="56">
+        <v>6510</v>
+      </c>
+      <c r="J49" s="61">
+        <v>661</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="J43:J48">
+    <cfRule type="cellIs" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9:J14">
+    <cfRule type="cellIs" priority="3" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="67" orientation="landscape" r:id="rId1"/>
+</worksheet>
 </file>
--- a/القبض.xlsx
+++ b/القبض.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="55">
   <si>
     <t xml:space="preserve">عدد الأيام </t>
   </si>
@@ -173,12 +173,6 @@
   </si>
   <si>
     <t>الاربعاء</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ام كريم</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ولاء عامر </t>
   </si>
   <si>
     <t>مج</t>
@@ -286,7 +280,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -335,8 +329,20 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor theme="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -466,21 +472,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -504,7 +495,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -607,97 +598,101 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill>
@@ -2177,7 +2172,7 @@
     <cfRule type="cellIs" priority="11" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2185,7 +2180,7 @@
     <cfRule type="cellIs" priority="9" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2193,7 +2188,7 @@
     <cfRule type="cellIs" priority="7" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2201,7 +2196,7 @@
     <cfRule type="cellIs" priority="5" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2209,7 +2204,7 @@
     <cfRule type="cellIs" priority="3" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2217,7 +2212,7 @@
     <cfRule type="cellIs" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2231,10 +2226,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:T34"/>
+  <dimension ref="A2:T29"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2246,52 +2241,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="61" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D2" s="37"/>
-      <c r="E2" s="40" t="s">
-        <v>45</v>
+      <c r="E2" s="36" t="s">
+        <v>47</v>
       </c>
       <c r="F2" s="37"/>
       <c r="G2" s="36" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H2" s="37"/>
       <c r="I2" s="36" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J2" s="37"/>
       <c r="K2" s="36" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L2" s="37"/>
-      <c r="M2" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="N2" s="37"/>
-      <c r="O2" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="36" t="s">
+      <c r="M2" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="R2" s="37"/>
-      <c r="S2" s="36" t="s">
+      <c r="N2" s="60"/>
+      <c r="O2" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="T2" s="37"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="R2" s="60"/>
+      <c r="S2" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="T2" s="60"/>
     </row>
     <row r="3" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="62"/>
       <c r="C3" s="33" t="s">
         <v>42</v>
       </c>
@@ -2402,7 +2397,7 @@
     </row>
     <row r="6" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="26">
-        <f t="shared" ref="A6:A34" si="0">A5+1</f>
+        <f t="shared" ref="A6:A29" si="0">A5+1</f>
         <v>3</v>
       </c>
       <c r="B6" s="25" t="s">
@@ -2433,7 +2428,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" s="23"/>
       <c r="D7" s="35"/>
@@ -2460,7 +2455,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="35"/>
@@ -2487,7 +2482,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="35"/>
@@ -2514,7 +2509,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="35"/>
@@ -2541,7 +2536,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C11" s="23"/>
       <c r="D11" s="35"/>
@@ -2567,9 +2562,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B12" s="25" t="s">
-        <v>30</v>
-      </c>
+      <c r="B12" s="25"/>
       <c r="C12" s="23"/>
       <c r="D12" s="35"/>
       <c r="E12" s="23"/>
@@ -2589,194 +2582,196 @@
       <c r="S12" s="23"/>
       <c r="T12" s="35"/>
     </row>
-    <row r="13" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="26">
+    <row r="13" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="37"/>
+      <c r="E13" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="37"/>
+      <c r="G13" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="37"/>
+      <c r="I13" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" s="37"/>
+      <c r="K13" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="L13" s="37"/>
+      <c r="M13" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="N13" s="60"/>
+      <c r="O13" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="P13" s="60"/>
+      <c r="Q13" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="R13" s="60"/>
+      <c r="S13" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="T13" s="60"/>
+    </row>
+    <row r="14" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="62"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="L14" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="M14" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="N14" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="O14" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="P14" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q14" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="R14" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="S14" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="T14" s="34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="29">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="35"/>
-    </row>
-    <row r="14" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="26">
+        <v>1</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="31"/>
+    </row>
+    <row r="16" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="29">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="35"/>
-    </row>
-    <row r="15" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="26">
+        <v>2</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="27"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="31"/>
+    </row>
+    <row r="17" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="29">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="35"/>
-    </row>
-    <row r="16" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="37"/>
-      <c r="E16" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="37"/>
-      <c r="G16" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" s="37"/>
-      <c r="I16" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="J16" s="37"/>
-      <c r="K16" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="L16" s="37"/>
-      <c r="M16" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="N16" s="37"/>
-      <c r="O16" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="R16" s="37"/>
-      <c r="S16" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="T16" s="37"/>
-    </row>
-    <row r="17" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="39"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="H17" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="I17" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="J17" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="K17" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="L17" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="M17" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="N17" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="O17" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="P17" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q17" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="R17" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="S17" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="T17" s="34" t="s">
-        <v>43</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="27"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="31"/>
     </row>
     <row r="18" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="29">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C18" s="27"/>
       <c r="D18" s="31"/>
@@ -2800,10 +2795,10 @@
     <row r="19" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="29">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="31"/>
@@ -2827,64 +2822,60 @@
     <row r="20" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="29">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="31"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="31"/>
+        <v>6</v>
+      </c>
+      <c r="B20" s="65"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="66"/>
+      <c r="N20" s="67"/>
+      <c r="O20" s="66"/>
+      <c r="P20" s="67"/>
+      <c r="Q20" s="63"/>
+      <c r="R20" s="64"/>
+      <c r="S20" s="63"/>
+      <c r="T20" s="64"/>
     </row>
     <row r="21" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="29">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="31"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="31"/>
+        <v>7</v>
+      </c>
+      <c r="B21" s="65"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="66"/>
+      <c r="N21" s="67"/>
+      <c r="O21" s="66"/>
+      <c r="P21" s="67"/>
+      <c r="Q21" s="63"/>
+      <c r="R21" s="64"/>
+      <c r="S21" s="63"/>
+      <c r="T21" s="64"/>
     </row>
     <row r="22" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="29">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C22" s="27"/>
       <c r="D22" s="31"/>
@@ -2908,10 +2899,10 @@
     <row r="23" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="29">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C23" s="27"/>
       <c r="D23" s="31"/>
@@ -2935,10 +2926,10 @@
     <row r="24" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="29">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="C24" s="27"/>
       <c r="D24" s="31"/>
@@ -2962,11 +2953,9 @@
     <row r="25" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="29">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>52</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B25" s="28"/>
       <c r="C25" s="27"/>
       <c r="D25" s="31"/>
       <c r="E25" s="27"/>
@@ -2989,263 +2978,120 @@
     <row r="26" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="29">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B26" s="28"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="31"/>
-      <c r="S26" s="27"/>
-      <c r="T26" s="31"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="32"/>
     </row>
     <row r="27" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="29">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="31"/>
-      <c r="S27" s="27"/>
-      <c r="T27" s="31"/>
+        <v>13</v>
+      </c>
+      <c r="B27" s="28"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="32"/>
     </row>
     <row r="28" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="29">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="27"/>
-      <c r="R28" s="31"/>
-      <c r="S28" s="27"/>
-      <c r="T28" s="31"/>
+        <v>14</v>
+      </c>
+      <c r="B28" s="28"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="32"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="32"/>
     </row>
     <row r="29" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="29">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="31"/>
-      <c r="S29" s="27"/>
-      <c r="T29" s="31"/>
-    </row>
-    <row r="30" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="29">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B30" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="27"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="27"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="27"/>
-      <c r="R30" s="31"/>
-      <c r="S30" s="27"/>
-      <c r="T30" s="31"/>
-    </row>
-    <row r="31" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="29">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="32"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="32"/>
-      <c r="Q31" s="29"/>
-      <c r="R31" s="32"/>
-      <c r="S31" s="29"/>
-      <c r="T31" s="32"/>
-    </row>
-    <row r="32" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="29">
-        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="32"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="32"/>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="32"/>
-      <c r="S32" s="29"/>
-      <c r="T32" s="32"/>
-    </row>
-    <row r="33" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="29">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B33" s="28"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="32"/>
-      <c r="Q33" s="29"/>
-      <c r="R33" s="32"/>
-      <c r="S33" s="29"/>
-      <c r="T33" s="32"/>
-    </row>
-    <row r="34" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="29">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="32"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="32"/>
-      <c r="Q34" s="29"/>
-      <c r="R34" s="32"/>
-      <c r="S34" s="29"/>
-      <c r="T34" s="32"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="32"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="12">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
     <mergeCell ref="M2:N2"/>
-    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="S13:T13"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q13:R13"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="96" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="84" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3256,7 +3102,7 @@
   </sheetPr>
   <dimension ref="A2:J49"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8:J15"/>
     </sheetView>
   </sheetViews>
@@ -3311,499 +3157,499 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="41" t="s">
+      <c r="C8" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="42" t="s">
+      <c r="F8" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="42" t="s">
+      <c r="G8" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="J8" s="42" t="s">
+      <c r="H8" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="39" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="43">
+      <c r="A9" s="40">
         <v>1</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="42">
         <f>11+7</f>
         <v>18</v>
       </c>
-      <c r="D9" s="45">
+      <c r="D9" s="42">
         <v>120</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="42">
         <f>D9*C9</f>
         <v>2160</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="42">
         <f>25*15</f>
         <v>375</v>
       </c>
-      <c r="G9" s="46"/>
-      <c r="H9" s="55">
+      <c r="G9" s="43"/>
+      <c r="H9" s="52">
         <v>2220</v>
       </c>
-      <c r="I9" s="45">
+      <c r="I9" s="42">
         <v>300</v>
       </c>
-      <c r="J9" s="45">
+      <c r="J9" s="42">
         <f>(E9-I9-H9)+F9</f>
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="43">
+      <c r="A10" s="40">
         <f>A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="42">
         <f>11+7</f>
         <v>18</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="42">
         <v>120</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="42">
         <f t="shared" ref="E10:E13" si="0">D10*C10</f>
         <v>2160</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="42">
         <f>15*25</f>
         <v>375</v>
       </c>
-      <c r="G10" s="46"/>
-      <c r="H10" s="55">
+      <c r="G10" s="43"/>
+      <c r="H10" s="52">
         <v>3690</v>
       </c>
-      <c r="I10" s="45">
+      <c r="I10" s="42">
         <v>400</v>
       </c>
-      <c r="J10" s="45">
+      <c r="J10" s="42">
         <f t="shared" ref="J10:J14" si="1">(E10-I10-H10)+F10</f>
         <v>-1555</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="43">
+      <c r="A11" s="40">
         <f t="shared" ref="A11:A14" si="2">A10+1</f>
         <v>3</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="45">
+      <c r="C11" s="42">
         <f>7+9</f>
         <v>16</v>
       </c>
-      <c r="D11" s="45">
+      <c r="D11" s="42">
         <v>170</v>
       </c>
-      <c r="E11" s="45">
+      <c r="E11" s="42">
         <f t="shared" si="0"/>
         <v>2720</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="42">
         <f>17*21</f>
         <v>357</v>
       </c>
-      <c r="G11" s="46"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45">
+      <c r="G11" s="43"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42">
         <v>200</v>
       </c>
-      <c r="J11" s="45">
+      <c r="J11" s="42">
         <f t="shared" si="1"/>
         <v>2877</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="43">
+      <c r="A12" s="40">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="45">
+      <c r="C12" s="42">
         <f>7.5+7</f>
         <v>14.5</v>
       </c>
-      <c r="D12" s="45">
+      <c r="D12" s="42">
         <v>170</v>
       </c>
-      <c r="E12" s="45">
+      <c r="E12" s="42">
         <f t="shared" si="0"/>
         <v>2465</v>
       </c>
-      <c r="F12" s="45">
+      <c r="F12" s="42">
         <f>21*11</f>
         <v>231</v>
       </c>
-      <c r="G12" s="46"/>
-      <c r="H12" s="55">
+      <c r="G12" s="43"/>
+      <c r="H12" s="52">
         <v>300</v>
       </c>
-      <c r="I12" s="45">
+      <c r="I12" s="42">
         <v>200</v>
       </c>
-      <c r="J12" s="45">
+      <c r="J12" s="42">
         <f t="shared" si="1"/>
         <v>2196</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="43">
+      <c r="A13" s="40">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="45">
+      <c r="C13" s="42">
         <f>9+7</f>
         <v>16</v>
       </c>
-      <c r="D13" s="45">
+      <c r="D13" s="42">
         <v>50</v>
       </c>
-      <c r="E13" s="45">
+      <c r="E13" s="42">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
-      <c r="F13" s="45">
+      <c r="F13" s="42">
         <v>36</v>
       </c>
-      <c r="G13" s="46"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45">
-        <v>0</v>
-      </c>
-      <c r="J13" s="45">
+      <c r="G13" s="43"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42">
+        <v>0</v>
+      </c>
+      <c r="J13" s="42">
         <f t="shared" si="1"/>
         <v>836</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="43">
+      <c r="A14" s="40">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="B14" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="55">
+      <c r="B14" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="52">
         <v>3</v>
       </c>
-      <c r="D14" s="55">
+      <c r="D14" s="52">
         <v>120</v>
       </c>
-      <c r="E14" s="55">
+      <c r="E14" s="52">
         <v>360</v>
       </c>
-      <c r="F14" s="55"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55">
+      <c r="F14" s="52"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52">
         <v>300</v>
       </c>
-      <c r="J14" s="45">
+      <c r="J14" s="42">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="47" t="s">
+      <c r="A15" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="46">
+      <c r="C15" s="45"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="43">
         <f>SUM(E9:E13)</f>
         <v>10305</v>
       </c>
-      <c r="F15" s="46">
-        <v>0</v>
-      </c>
-      <c r="G15" s="46">
-        <v>0</v>
-      </c>
-      <c r="H15" s="46">
+      <c r="F15" s="43">
+        <v>0</v>
+      </c>
+      <c r="G15" s="43">
+        <v>0</v>
+      </c>
+      <c r="H15" s="43">
         <v>1100</v>
       </c>
-      <c r="I15" s="46">
+      <c r="I15" s="43">
         <v>1100</v>
       </c>
-      <c r="J15" s="50">
+      <c r="J15" s="47">
         <f>SUM(J9:J14)</f>
         <v>4429</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="63" x14ac:dyDescent="0.2">
-      <c r="A42" s="51" t="s">
+      <c r="A42" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="51" t="s">
+      <c r="B42" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C42" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="D42" s="51" t="s">
+      <c r="C42" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="E42" s="52" t="s">
+      <c r="E42" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="F42" s="52" t="s">
+      <c r="F42" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="G42" s="52" t="s">
+      <c r="G42" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="H42" s="51" t="s">
+      <c r="H42" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="I42" s="52" t="s">
+      <c r="I42" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="J42" s="52" t="s">
+      <c r="J42" s="49" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="53">
+      <c r="A43" s="50">
         <v>10</v>
       </c>
-      <c r="B43" s="54" t="s">
+      <c r="B43" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C43" s="55">
+      <c r="C43" s="52">
         <v>9</v>
       </c>
-      <c r="D43" s="55">
+      <c r="D43" s="52">
         <v>170</v>
       </c>
-      <c r="E43" s="55">
+      <c r="E43" s="52">
         <v>1530</v>
       </c>
-      <c r="F43" s="55">
+      <c r="F43" s="52">
         <v>252</v>
       </c>
-      <c r="G43" s="56"/>
-      <c r="H43" s="55">
-        <v>0</v>
-      </c>
-      <c r="I43" s="55">
-        <v>0</v>
-      </c>
-      <c r="J43" s="55">
+      <c r="G43" s="53"/>
+      <c r="H43" s="52">
+        <v>0</v>
+      </c>
+      <c r="I43" s="52">
+        <v>0</v>
+      </c>
+      <c r="J43" s="52">
         <v>1782</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="53">
+      <c r="A44" s="50">
         <v>11</v>
       </c>
-      <c r="B44" s="57" t="s">
+      <c r="B44" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="55">
+      <c r="C44" s="52">
         <v>6.5</v>
       </c>
-      <c r="D44" s="55">
+      <c r="D44" s="52">
         <v>170</v>
       </c>
-      <c r="E44" s="55">
+      <c r="E44" s="52">
         <v>1105</v>
       </c>
-      <c r="F44" s="55">
+      <c r="F44" s="52">
         <v>168</v>
       </c>
-      <c r="G44" s="56"/>
-      <c r="H44" s="55">
+      <c r="G44" s="53"/>
+      <c r="H44" s="52">
         <v>300</v>
       </c>
-      <c r="I44" s="55">
+      <c r="I44" s="52">
         <v>300</v>
       </c>
-      <c r="J44" s="55">
+      <c r="J44" s="52">
         <v>973</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="53">
+      <c r="A45" s="50">
         <v>20</v>
       </c>
-      <c r="B45" s="54" t="s">
+      <c r="B45" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="55">
+      <c r="C45" s="52">
         <v>11</v>
       </c>
-      <c r="D45" s="55">
+      <c r="D45" s="52">
         <v>120</v>
       </c>
-      <c r="E45" s="55">
+      <c r="E45" s="52">
         <v>1320</v>
       </c>
-      <c r="F45" s="55">
+      <c r="F45" s="52">
         <v>315</v>
       </c>
-      <c r="G45" s="56"/>
-      <c r="H45" s="55">
+      <c r="G45" s="53"/>
+      <c r="H45" s="52">
         <v>2220</v>
       </c>
-      <c r="I45" s="55">
+      <c r="I45" s="52">
         <v>2220</v>
       </c>
-      <c r="J45" s="55">
+      <c r="J45" s="52">
         <v>-585</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="53">
+      <c r="A46" s="50">
         <v>21</v>
       </c>
-      <c r="B46" s="54" t="s">
+      <c r="B46" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="55">
+      <c r="C46" s="52">
         <v>11</v>
       </c>
-      <c r="D46" s="55">
+      <c r="D46" s="52">
         <v>120</v>
       </c>
-      <c r="E46" s="55">
+      <c r="E46" s="52">
         <v>1320</v>
       </c>
-      <c r="F46" s="55">
+      <c r="F46" s="52">
         <v>315</v>
       </c>
-      <c r="G46" s="56"/>
-      <c r="H46" s="55">
+      <c r="G46" s="53"/>
+      <c r="H46" s="52">
         <v>3690</v>
       </c>
-      <c r="I46" s="55">
+      <c r="I46" s="52">
         <v>3690</v>
       </c>
-      <c r="J46" s="55">
+      <c r="J46" s="52">
         <v>-2055</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="53">
+      <c r="A47" s="50">
         <v>22</v>
       </c>
-      <c r="B47" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="C47" s="55">
+      <c r="B47" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="52">
         <v>3</v>
       </c>
-      <c r="D47" s="55">
+      <c r="D47" s="52">
         <v>120</v>
       </c>
-      <c r="E47" s="55">
+      <c r="E47" s="52">
         <v>360</v>
       </c>
-      <c r="F47" s="55"/>
-      <c r="G47" s="56"/>
-      <c r="H47" s="55">
+      <c r="F47" s="52"/>
+      <c r="G47" s="53"/>
+      <c r="H47" s="52">
         <v>300</v>
       </c>
-      <c r="I47" s="55">
+      <c r="I47" s="52">
         <v>300</v>
       </c>
-      <c r="J47" s="55">
+      <c r="J47" s="52">
         <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="53">
+      <c r="A48" s="50">
         <v>28</v>
       </c>
-      <c r="B48" s="54" t="s">
+      <c r="B48" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C48" s="55">
+      <c r="C48" s="52">
         <v>9</v>
       </c>
-      <c r="D48" s="55">
+      <c r="D48" s="52">
         <v>50</v>
       </c>
-      <c r="E48" s="55">
+      <c r="E48" s="52">
         <v>450</v>
       </c>
-      <c r="F48" s="55">
+      <c r="F48" s="52">
         <v>36</v>
       </c>
-      <c r="G48" s="56"/>
-      <c r="H48" s="55">
-        <v>0</v>
-      </c>
-      <c r="I48" s="55">
-        <v>0</v>
-      </c>
-      <c r="J48" s="55">
+      <c r="G48" s="53"/>
+      <c r="H48" s="52">
+        <v>0</v>
+      </c>
+      <c r="I48" s="52">
+        <v>0</v>
+      </c>
+      <c r="J48" s="52">
         <v>486</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="B49" s="58" t="s">
+      <c r="A49" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="59"/>
-      <c r="D49" s="60"/>
-      <c r="E49" s="56">
+      <c r="C49" s="56"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="53">
         <v>6085</v>
       </c>
-      <c r="F49" s="56">
+      <c r="F49" s="53">
         <v>1086</v>
       </c>
-      <c r="G49" s="56">
-        <v>0</v>
-      </c>
-      <c r="H49" s="56">
+      <c r="G49" s="53">
+        <v>0</v>
+      </c>
+      <c r="H49" s="53">
         <v>6510</v>
       </c>
-      <c r="I49" s="56">
+      <c r="I49" s="53">
         <v>6510</v>
       </c>
-      <c r="J49" s="61">
+      <c r="J49" s="58">
         <v>661</v>
       </c>
     </row>
@@ -3812,7 +3658,7 @@
     <cfRule type="cellIs" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3820,7 +3666,7 @@
     <cfRule type="cellIs" priority="3" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/القبض.xlsx
+++ b/القبض.xlsx
@@ -342,7 +342,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -491,11 +491,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -592,101 +618,104 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2228,8 +2257,8 @@
   </sheetPr>
   <dimension ref="A2:T29"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2241,52 +2270,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="36" t="s">
+      <c r="D2" s="67"/>
+      <c r="E2" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="36" t="s">
+      <c r="F2" s="67"/>
+      <c r="G2" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="36" t="s">
+      <c r="H2" s="67"/>
+      <c r="I2" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="37"/>
-      <c r="K2" s="36" t="s">
+      <c r="J2" s="67"/>
+      <c r="K2" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="L2" s="37"/>
-      <c r="M2" s="59" t="s">
+      <c r="L2" s="67"/>
+      <c r="M2" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="N2" s="60"/>
-      <c r="O2" s="59" t="s">
+      <c r="N2" s="67"/>
+      <c r="O2" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="59" t="s">
+      <c r="P2" s="65"/>
+      <c r="Q2" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="R2" s="60"/>
-      <c r="S2" s="59" t="s">
+      <c r="R2" s="65"/>
+      <c r="S2" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="T2" s="60"/>
+      <c r="T2" s="65"/>
     </row>
     <row r="3" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="62"/>
-      <c r="B3" s="62"/>
+      <c r="A3" s="63"/>
+      <c r="B3" s="63"/>
       <c r="C3" s="33" t="s">
         <v>42</v>
       </c>
@@ -2583,52 +2612,52 @@
       <c r="T12" s="35"/>
     </row>
     <row r="13" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="61" t="s">
+      <c r="A13" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="37"/>
-      <c r="E13" s="36" t="s">
+      <c r="D13" s="67"/>
+      <c r="E13" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="37"/>
-      <c r="G13" s="36" t="s">
+      <c r="F13" s="67"/>
+      <c r="G13" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="37"/>
-      <c r="I13" s="36" t="s">
+      <c r="H13" s="67"/>
+      <c r="I13" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="J13" s="37"/>
-      <c r="K13" s="36" t="s">
+      <c r="J13" s="67"/>
+      <c r="K13" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="L13" s="37"/>
-      <c r="M13" s="59" t="s">
+      <c r="L13" s="67"/>
+      <c r="M13" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="N13" s="60"/>
-      <c r="O13" s="59" t="s">
+      <c r="N13" s="65"/>
+      <c r="O13" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="P13" s="60"/>
-      <c r="Q13" s="59" t="s">
+      <c r="P13" s="65"/>
+      <c r="Q13" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="R13" s="60"/>
-      <c r="S13" s="59" t="s">
+      <c r="R13" s="65"/>
+      <c r="S13" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="T13" s="60"/>
+      <c r="T13" s="65"/>
     </row>
     <row r="14" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="62"/>
-      <c r="B14" s="62"/>
+      <c r="A14" s="63"/>
+      <c r="B14" s="63"/>
       <c r="C14" s="33" t="s">
         <v>42</v>
       </c>
@@ -2824,50 +2853,50 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B20" s="65"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="67"/>
-      <c r="M20" s="66"/>
-      <c r="N20" s="67"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="67"/>
-      <c r="Q20" s="63"/>
-      <c r="R20" s="64"/>
-      <c r="S20" s="63"/>
-      <c r="T20" s="64"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="60"/>
+      <c r="P20" s="61"/>
+      <c r="Q20" s="57"/>
+      <c r="R20" s="58"/>
+      <c r="S20" s="57"/>
+      <c r="T20" s="58"/>
     </row>
     <row r="21" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="29">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B21" s="65"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="67"/>
-      <c r="M21" s="66"/>
-      <c r="N21" s="67"/>
-      <c r="O21" s="66"/>
-      <c r="P21" s="67"/>
-      <c r="Q21" s="63"/>
-      <c r="R21" s="64"/>
-      <c r="S21" s="63"/>
-      <c r="T21" s="64"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="60"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="60"/>
+      <c r="P21" s="61"/>
+      <c r="Q21" s="57"/>
+      <c r="R21" s="58"/>
+      <c r="S21" s="57"/>
+      <c r="T21" s="58"/>
     </row>
     <row r="22" spans="1:20" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="29">
@@ -3076,7 +3105,13 @@
       <c r="T29" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="22">
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="A13:A14"/>
@@ -3089,6 +3124,10 @@
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="84" orientation="landscape" r:id="rId1"/>
@@ -3157,499 +3196,499 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="38" t="s">
+      <c r="C8" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G8" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="39" t="s">
+      <c r="H8" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="38" t="s">
+      <c r="I8" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="39" t="s">
+      <c r="J8" s="37" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="40">
+      <c r="A9" s="38">
         <v>1</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="42">
+      <c r="C9" s="40">
         <f>11+7</f>
         <v>18</v>
       </c>
-      <c r="D9" s="42">
+      <c r="D9" s="40">
         <v>120</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="40">
         <f>D9*C9</f>
         <v>2160</v>
       </c>
-      <c r="F9" s="42">
+      <c r="F9" s="40">
         <f>25*15</f>
         <v>375</v>
       </c>
-      <c r="G9" s="43"/>
-      <c r="H9" s="52">
+      <c r="G9" s="41"/>
+      <c r="H9" s="50">
         <v>2220</v>
       </c>
-      <c r="I9" s="42">
+      <c r="I9" s="40">
         <v>300</v>
       </c>
-      <c r="J9" s="42">
+      <c r="J9" s="40">
         <f>(E9-I9-H9)+F9</f>
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="40">
+      <c r="A10" s="38">
         <f>A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="42">
+      <c r="C10" s="40">
         <f>11+7</f>
         <v>18</v>
       </c>
-      <c r="D10" s="42">
+      <c r="D10" s="40">
         <v>120</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="40">
         <f t="shared" ref="E10:E13" si="0">D10*C10</f>
         <v>2160</v>
       </c>
-      <c r="F10" s="42">
+      <c r="F10" s="40">
         <f>15*25</f>
         <v>375</v>
       </c>
-      <c r="G10" s="43"/>
-      <c r="H10" s="52">
+      <c r="G10" s="41"/>
+      <c r="H10" s="50">
         <v>3690</v>
       </c>
-      <c r="I10" s="42">
+      <c r="I10" s="40">
         <v>400</v>
       </c>
-      <c r="J10" s="42">
+      <c r="J10" s="40">
         <f t="shared" ref="J10:J14" si="1">(E10-I10-H10)+F10</f>
         <v>-1555</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="40">
+      <c r="A11" s="38">
         <f t="shared" ref="A11:A14" si="2">A10+1</f>
         <v>3</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="42">
+      <c r="C11" s="40">
         <f>7+9</f>
         <v>16</v>
       </c>
-      <c r="D11" s="42">
+      <c r="D11" s="40">
         <v>170</v>
       </c>
-      <c r="E11" s="42">
+      <c r="E11" s="40">
         <f t="shared" si="0"/>
         <v>2720</v>
       </c>
-      <c r="F11" s="42">
+      <c r="F11" s="40">
         <f>17*21</f>
         <v>357</v>
       </c>
-      <c r="G11" s="43"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42">
+      <c r="G11" s="41"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40">
         <v>200</v>
       </c>
-      <c r="J11" s="42">
+      <c r="J11" s="40">
         <f t="shared" si="1"/>
         <v>2877</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="40">
+      <c r="A12" s="38">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="42">
+      <c r="C12" s="40">
         <f>7.5+7</f>
         <v>14.5</v>
       </c>
-      <c r="D12" s="42">
+      <c r="D12" s="40">
         <v>170</v>
       </c>
-      <c r="E12" s="42">
+      <c r="E12" s="40">
         <f t="shared" si="0"/>
         <v>2465</v>
       </c>
-      <c r="F12" s="42">
+      <c r="F12" s="40">
         <f>21*11</f>
         <v>231</v>
       </c>
-      <c r="G12" s="43"/>
-      <c r="H12" s="52">
+      <c r="G12" s="41"/>
+      <c r="H12" s="50">
         <v>300</v>
       </c>
-      <c r="I12" s="42">
+      <c r="I12" s="40">
         <v>200</v>
       </c>
-      <c r="J12" s="42">
+      <c r="J12" s="40">
         <f t="shared" si="1"/>
         <v>2196</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="40">
+      <c r="A13" s="38">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="42">
+      <c r="C13" s="40">
         <f>9+7</f>
         <v>16</v>
       </c>
-      <c r="D13" s="42">
+      <c r="D13" s="40">
         <v>50</v>
       </c>
-      <c r="E13" s="42">
+      <c r="E13" s="40">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
-      <c r="F13" s="42">
+      <c r="F13" s="40">
         <v>36</v>
       </c>
-      <c r="G13" s="43"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42">
-        <v>0</v>
-      </c>
-      <c r="J13" s="42">
+      <c r="G13" s="41"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40">
+        <v>0</v>
+      </c>
+      <c r="J13" s="40">
         <f t="shared" si="1"/>
         <v>836</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="40">
+      <c r="A14" s="38">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="52">
+      <c r="C14" s="50">
         <v>3</v>
       </c>
-      <c r="D14" s="52">
+      <c r="D14" s="50">
         <v>120</v>
       </c>
-      <c r="E14" s="52">
+      <c r="E14" s="50">
         <v>360</v>
       </c>
-      <c r="F14" s="52"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52">
+      <c r="F14" s="50"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50">
         <v>300</v>
       </c>
-      <c r="J14" s="42">
+      <c r="J14" s="40">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="43">
+      <c r="C15" s="43"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="41">
         <f>SUM(E9:E13)</f>
         <v>10305</v>
       </c>
-      <c r="F15" s="43">
-        <v>0</v>
-      </c>
-      <c r="G15" s="43">
-        <v>0</v>
-      </c>
-      <c r="H15" s="43">
+      <c r="F15" s="41">
+        <v>0</v>
+      </c>
+      <c r="G15" s="41">
+        <v>0</v>
+      </c>
+      <c r="H15" s="41">
         <v>1100</v>
       </c>
-      <c r="I15" s="43">
+      <c r="I15" s="41">
         <v>1100</v>
       </c>
-      <c r="J15" s="47">
+      <c r="J15" s="45">
         <f>SUM(J9:J14)</f>
         <v>4429</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="63" x14ac:dyDescent="0.2">
-      <c r="A42" s="48" t="s">
+      <c r="A42" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="48" t="s">
+      <c r="B42" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C42" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="D42" s="48" t="s">
+      <c r="C42" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="E42" s="49" t="s">
+      <c r="E42" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="F42" s="49" t="s">
+      <c r="F42" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="G42" s="49" t="s">
+      <c r="G42" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="H42" s="48" t="s">
+      <c r="H42" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="I42" s="49" t="s">
+      <c r="I42" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="J42" s="49" t="s">
+      <c r="J42" s="47" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="50">
+      <c r="A43" s="48">
         <v>10</v>
       </c>
-      <c r="B43" s="51" t="s">
+      <c r="B43" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="C43" s="52">
+      <c r="C43" s="50">
         <v>9</v>
       </c>
-      <c r="D43" s="52">
+      <c r="D43" s="50">
         <v>170</v>
       </c>
-      <c r="E43" s="52">
+      <c r="E43" s="50">
         <v>1530</v>
       </c>
-      <c r="F43" s="52">
+      <c r="F43" s="50">
         <v>252</v>
       </c>
-      <c r="G43" s="53"/>
-      <c r="H43" s="52">
-        <v>0</v>
-      </c>
-      <c r="I43" s="52">
-        <v>0</v>
-      </c>
-      <c r="J43" s="52">
+      <c r="G43" s="51"/>
+      <c r="H43" s="50">
+        <v>0</v>
+      </c>
+      <c r="I43" s="50">
+        <v>0</v>
+      </c>
+      <c r="J43" s="50">
         <v>1782</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="50">
+      <c r="A44" s="48">
         <v>11</v>
       </c>
-      <c r="B44" s="54" t="s">
+      <c r="B44" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="52">
+      <c r="C44" s="50">
         <v>6.5</v>
       </c>
-      <c r="D44" s="52">
+      <c r="D44" s="50">
         <v>170</v>
       </c>
-      <c r="E44" s="52">
+      <c r="E44" s="50">
         <v>1105</v>
       </c>
-      <c r="F44" s="52">
+      <c r="F44" s="50">
         <v>168</v>
       </c>
-      <c r="G44" s="53"/>
-      <c r="H44" s="52">
+      <c r="G44" s="51"/>
+      <c r="H44" s="50">
         <v>300</v>
       </c>
-      <c r="I44" s="52">
+      <c r="I44" s="50">
         <v>300</v>
       </c>
-      <c r="J44" s="52">
+      <c r="J44" s="50">
         <v>973</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="50">
+      <c r="A45" s="48">
         <v>20</v>
       </c>
-      <c r="B45" s="51" t="s">
+      <c r="B45" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="52">
+      <c r="C45" s="50">
         <v>11</v>
       </c>
-      <c r="D45" s="52">
+      <c r="D45" s="50">
         <v>120</v>
       </c>
-      <c r="E45" s="52">
+      <c r="E45" s="50">
         <v>1320</v>
       </c>
-      <c r="F45" s="52">
+      <c r="F45" s="50">
         <v>315</v>
       </c>
-      <c r="G45" s="53"/>
-      <c r="H45" s="52">
+      <c r="G45" s="51"/>
+      <c r="H45" s="50">
         <v>2220</v>
       </c>
-      <c r="I45" s="52">
+      <c r="I45" s="50">
         <v>2220</v>
       </c>
-      <c r="J45" s="52">
+      <c r="J45" s="50">
         <v>-585</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="50">
+      <c r="A46" s="48">
         <v>21</v>
       </c>
-      <c r="B46" s="51" t="s">
+      <c r="B46" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="52">
+      <c r="C46" s="50">
         <v>11</v>
       </c>
-      <c r="D46" s="52">
+      <c r="D46" s="50">
         <v>120</v>
       </c>
-      <c r="E46" s="52">
+      <c r="E46" s="50">
         <v>1320</v>
       </c>
-      <c r="F46" s="52">
+      <c r="F46" s="50">
         <v>315</v>
       </c>
-      <c r="G46" s="53"/>
-      <c r="H46" s="52">
+      <c r="G46" s="51"/>
+      <c r="H46" s="50">
         <v>3690</v>
       </c>
-      <c r="I46" s="52">
+      <c r="I46" s="50">
         <v>3690</v>
       </c>
-      <c r="J46" s="52">
+      <c r="J46" s="50">
         <v>-2055</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="50">
+      <c r="A47" s="48">
         <v>22</v>
       </c>
-      <c r="B47" s="51" t="s">
+      <c r="B47" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="C47" s="52">
+      <c r="C47" s="50">
         <v>3</v>
       </c>
-      <c r="D47" s="52">
+      <c r="D47" s="50">
         <v>120</v>
       </c>
-      <c r="E47" s="52">
+      <c r="E47" s="50">
         <v>360</v>
       </c>
-      <c r="F47" s="52"/>
-      <c r="G47" s="53"/>
-      <c r="H47" s="52">
+      <c r="F47" s="50"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="50">
         <v>300</v>
       </c>
-      <c r="I47" s="52">
+      <c r="I47" s="50">
         <v>300</v>
       </c>
-      <c r="J47" s="52">
+      <c r="J47" s="50">
         <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="50">
+      <c r="A48" s="48">
         <v>28</v>
       </c>
-      <c r="B48" s="51" t="s">
+      <c r="B48" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C48" s="52">
+      <c r="C48" s="50">
         <v>9</v>
       </c>
-      <c r="D48" s="52">
+      <c r="D48" s="50">
         <v>50</v>
       </c>
-      <c r="E48" s="52">
+      <c r="E48" s="50">
         <v>450</v>
       </c>
-      <c r="F48" s="52">
+      <c r="F48" s="50">
         <v>36</v>
       </c>
-      <c r="G48" s="53"/>
-      <c r="H48" s="52">
-        <v>0</v>
-      </c>
-      <c r="I48" s="52">
-        <v>0</v>
-      </c>
-      <c r="J48" s="52">
+      <c r="G48" s="51"/>
+      <c r="H48" s="50">
+        <v>0</v>
+      </c>
+      <c r="I48" s="50">
+        <v>0</v>
+      </c>
+      <c r="J48" s="50">
         <v>486</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="55" t="s">
+      <c r="A49" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="55" t="s">
+      <c r="B49" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="56"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="53">
+      <c r="C49" s="54"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="51">
         <v>6085</v>
       </c>
-      <c r="F49" s="53">
+      <c r="F49" s="51">
         <v>1086</v>
       </c>
-      <c r="G49" s="53">
-        <v>0</v>
-      </c>
-      <c r="H49" s="53">
+      <c r="G49" s="51">
+        <v>0</v>
+      </c>
+      <c r="H49" s="51">
         <v>6510</v>
       </c>
-      <c r="I49" s="53">
+      <c r="I49" s="51">
         <v>6510</v>
       </c>
-      <c r="J49" s="58">
+      <c r="J49" s="56">
         <v>661</v>
       </c>
     </row>
